--- a/Assets/06.Table/GCPass.xlsx
+++ b/Assets/06.Table/GCPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAFD8BE-0241-4C52-AB3E-968D233A0E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2516FB45-9C64-4880-9076-249C7320FE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GCPass" sheetId="1" r:id="rId1"/>
@@ -1066,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2454,7 +2454,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="19">
-        <f t="shared" ref="B58:B59" si="3">B57*100</f>
+        <f t="shared" ref="B58:B63" si="3">B57*100</f>
         <v>9.9999999999999984E+115</v>
       </c>
       <c r="C58" s="20">
@@ -2494,6 +2494,102 @@
         <v>9017</v>
       </c>
       <c r="G59" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="18">
+        <v>58</v>
+      </c>
+      <c r="B60" s="19">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999984E+119</v>
+      </c>
+      <c r="C60" s="20">
+        <v>7</v>
+      </c>
+      <c r="D60" s="18">
+        <v>9027</v>
+      </c>
+      <c r="E60" s="21">
+        <v>2</v>
+      </c>
+      <c r="F60" s="18">
+        <v>9027</v>
+      </c>
+      <c r="G60" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="18">
+        <v>59</v>
+      </c>
+      <c r="B61" s="19">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999983E+121</v>
+      </c>
+      <c r="C61" s="20">
+        <v>7</v>
+      </c>
+      <c r="D61" s="18">
+        <v>9028</v>
+      </c>
+      <c r="E61" s="21">
+        <v>2</v>
+      </c>
+      <c r="F61" s="18">
+        <v>9028</v>
+      </c>
+      <c r="G61" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="18">
+        <v>60</v>
+      </c>
+      <c r="B62" s="19">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999983E+123</v>
+      </c>
+      <c r="C62" s="20">
+        <v>7</v>
+      </c>
+      <c r="D62" s="18">
+        <v>9023</v>
+      </c>
+      <c r="E62" s="21">
+        <v>2</v>
+      </c>
+      <c r="F62" s="18">
+        <v>9023</v>
+      </c>
+      <c r="G62" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="18">
+        <v>61</v>
+      </c>
+      <c r="B63" s="19">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999977E+125</v>
+      </c>
+      <c r="C63" s="20">
+        <v>7</v>
+      </c>
+      <c r="D63" s="18">
+        <v>9017</v>
+      </c>
+      <c r="E63" s="21">
+        <v>2</v>
+      </c>
+      <c r="F63" s="18">
+        <v>9017</v>
+      </c>
+      <c r="G63" s="21">
         <v>6</v>
       </c>
     </row>
@@ -2508,8 +2604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B699092B-189E-427C-8E28-BF4AED1E11B6}">
   <dimension ref="A2:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2679,7 +2775,7 @@
         <v>24000</v>
       </c>
       <c r="K7" s="39">
-        <f t="shared" ref="K6:K18" si="2">SUM(I7:J7)</f>
+        <f t="shared" ref="K7:K18" si="2">SUM(I7:J7)</f>
         <v>30000</v>
       </c>
       <c r="L7" s="4">
@@ -2977,15 +3073,15 @@
       </c>
       <c r="I15" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H15,GCPass!E:E)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J15" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H15,GCPass!G:G)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K15" s="39">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L15" s="4">
         <v>20</v>
@@ -3014,15 +3110,15 @@
       </c>
       <c r="I16" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H16,GCPass!E:E)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J16" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H16,GCPass!G:G)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K16" s="39">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L16" s="4">
         <v>20</v>
@@ -3051,15 +3147,15 @@
       </c>
       <c r="I17" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H17,GCPass!E:E)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J17" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H17,GCPass!G:G)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K17" s="39">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L17" s="4">
         <v>15</v>
@@ -3088,15 +3184,15 @@
       </c>
       <c r="I18" s="39">
         <f>SUMIF(GCPass!D:D,'보상 측정'!H18,GCPass!E:E)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J18" s="39">
         <f>SUMIF(GCPass!F:F,'보상 측정'!H18,GCPass!G:G)</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K18" s="39">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L18" s="4">
         <v>30</v>
